--- a/insta-goufa/variablesTracking.xlsx
+++ b/insta-goufa/variablesTracking.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>categories</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -56,6 +53,27 @@
   </si>
   <si>
     <t>React Component used to store categories</t>
+  </si>
+  <si>
+    <t>main merchants list</t>
+  </si>
+  <si>
+    <t>MERCHANTS</t>
+  </si>
+  <si>
+    <t>CATEGORIES</t>
+  </si>
+  <si>
+    <t>merchant id to satisfy React good coding practices</t>
+  </si>
+  <si>
+    <t>mercahnt name</t>
+  </si>
+  <si>
+    <t>merchant storefront imgae</t>
+  </si>
+  <si>
+    <t>merchant description</t>
   </si>
 </sst>
 </file>
@@ -404,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -419,58 +437,98 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/insta-goufa/variablesTracking.xlsx
+++ b/insta-goufa/variablesTracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -74,6 +74,51 @@
   </si>
   <si>
     <t>merchant description</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>merchant city</t>
+  </si>
+  <si>
+    <t>MERCHANTREVIEWS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id </t>
+  </si>
+  <si>
+    <t>merchantID</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>merchant review id to satisfy React good coding practices</t>
+  </si>
+  <si>
+    <t>identifies the merchant. Same as MERCHANTS-id.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merchant review rating  </t>
+  </si>
+  <si>
+    <t>merchant review text</t>
+  </si>
+  <si>
+    <t>mercahnt review author</t>
+  </si>
+  <si>
+    <t>merchant review date</t>
   </si>
 </sst>
 </file>
@@ -422,15 +467,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
@@ -531,6 +576,67 @@
         <v>19</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
